--- a/biology/Zoologie/Capucin_bec-d'argent/Capucin_bec-d'argent.xlsx
+++ b/biology/Zoologie/Capucin_bec-d'argent/Capucin_bec-d'argent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capucin_bec-d%27argent</t>
+          <t>Capucin_bec-d'argent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euodice cantans
 Le Capucin bec-d'argent (Euodice cantans) est une espèce de passereau de la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capucin_bec-d%27argent</t>
+          <t>Capucin_bec-d'argent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 11 cm de longueur. Son plumage présente une dominante sable vaguement marquée de petites stries, un peu plus sombre sur les ailes et la queue, un peu plus claire sur le ventre et les sous-caudales. Il n'y a pas de dimorphisme sexuel, mais le mâle est le seul à chanter.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capucin_bec-d%27argent</t>
+          <t>Capucin_bec-d'argent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans le nord de l'Afrique subsaharienne et le sud-ouest de la péninsule arabique.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Capucin_bec-d%27argent</t>
+          <t>Capucin_bec-d'argent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les savanes, les terres agricoles et les villages.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Capucin_bec-d%27argent</t>
+          <t>Capucin_bec-d'argent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nid est construit dans les buissons, sous les toits ou dans les murs des habitations.
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Capucin_bec-d%27argent</t>
+          <t>Capucin_bec-d'argent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certaines classifications, cette espèce a pour nom scientifique Lonchura cantans.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Capucin_bec-d%27argent</t>
+          <t>Capucin_bec-d'argent</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,12 +692,14 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Euodice cantans cantans  (Gmelin) 1789 ;
 Euodice cantans orientalis  (L. Lorenz von Liburnau &amp; Hellmayr) 1901.
-D'autres auteurs[1] admettent quatre sous-espèces.
+D'autres auteurs admettent quatre sous-espèces.
 </t>
         </is>
       </c>
